--- a/Données TD3.xlsx
+++ b/Données TD3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theom\Desktop\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D03089E-4204-4994-91F5-6BBB473CD443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04206D6-341F-4D39-894A-D83882BF2E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TD3" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +64,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -92,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -109,6 +114,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,10 +396,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:I258"/>
+  <dimension ref="A1:I259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="D259" sqref="D259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4260,6 +4266,20 @@
       </c>
       <c r="E258" s="7"/>
     </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <v>43377</v>
+      </c>
+      <c r="B259" s="10">
+        <v>5.7222999999999997</v>
+      </c>
+      <c r="C259" s="5">
+        <v>0.27190999999999999</v>
+      </c>
+      <c r="D259" s="5">
+        <v>0.19592000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
